--- a/data/trans_orig/P36B08_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{446358EA-0644-44CD-B1FE-CDBDCBFCF6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4078DF67-E3F8-4005-8293-C5D82C8EEC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B013745F-B8AF-4587-B1B6-DF104DAFE0C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10CBA024-72F1-4DA3-A957-7C0410D35581}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="246">
   <si>
     <t>Población según el número de vasos de vino que consumen a la semana en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>90,67%</t>
   </si>
   <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
@@ -104,688 +104,673 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>Siete o más vasos a la semana</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>Siete o más vasos a la semana</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>2,84%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1200,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356F6CE7-B082-4243-8F84-BEF6E4303971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F825D2A7-7543-4859-A3D7-8E75A43837E6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1557,7 +1542,7 @@
         <v>1029</v>
       </c>
       <c r="N8" s="7">
-        <v>994717</v>
+        <v>994716</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1566,7 +1551,7 @@
         <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,13 +1566,13 @@
         <v>48219</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -1596,13 +1581,13 @@
         <v>16876</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -1611,13 +1596,13 @@
         <v>65095</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1617,13 @@
         <v>9790</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1647,13 +1632,13 @@
         <v>2150</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -1665,10 +1650,10 @@
         <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,7 +1695,7 @@
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1071752</v>
+        <v>1071751</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1724,7 +1709,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1736,13 +1721,13 @@
         <v>280359</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>527</v>
@@ -1751,13 +1736,13 @@
         <v>367000</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>832</v>
@@ -1766,13 +1751,13 @@
         <v>647359</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,13 +1772,13 @@
         <v>17995</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1802,13 +1787,13 @@
         <v>3033</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -1817,13 +1802,13 @@
         <v>21028</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1823,13 @@
         <v>22694</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1853,13 +1838,13 @@
         <v>3251</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -1868,13 +1853,13 @@
         <v>25945</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,10 +1996,10 @@
         <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -2023,13 +2008,13 @@
         <v>20642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,13 +2029,13 @@
         <v>15495</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2059,13 +2044,13 @@
         <v>2385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -2074,13 +2059,13 @@
         <v>17880</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,7 +2121,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2148,13 +2133,13 @@
         <v>170496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>467</v>
@@ -2163,13 +2148,13 @@
         <v>219960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>709</v>
@@ -2178,13 +2163,13 @@
         <v>390456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2184,13 @@
         <v>8523</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -2214,13 +2199,13 @@
         <v>5464</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -2229,13 +2214,13 @@
         <v>13988</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2235,13 @@
         <v>16978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2265,13 +2250,13 @@
         <v>6072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -2280,13 +2265,13 @@
         <v>23050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,7 +2327,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2354,13 +2339,13 @@
         <v>251642</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>451</v>
@@ -2369,13 +2354,13 @@
         <v>270445</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>779</v>
@@ -2387,10 +2372,10 @@
         <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2390,13 @@
         <v>10789</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2420,13 +2405,13 @@
         <v>2190</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2435,13 +2420,13 @@
         <v>12979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,10 +2441,10 @@
         <v>14791</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>166</v>
@@ -2474,10 +2459,10 @@
         <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -2486,13 +2471,13 @@
         <v>17778</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2533,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2560,13 +2545,13 @@
         <v>583246</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>923</v>
@@ -2575,13 +2560,13 @@
         <v>783326</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M28" s="7">
         <v>1470</v>
@@ -2590,13 +2575,13 @@
         <v>1366572</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,13 +2596,13 @@
         <v>24935</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -2626,13 +2611,13 @@
         <v>11869</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -2641,13 +2626,13 @@
         <v>36804</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2647,13 @@
         <v>17335</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -2677,13 +2662,13 @@
         <v>8848</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
@@ -2692,13 +2677,13 @@
         <v>26183</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2739,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2766,13 +2751,13 @@
         <v>652759</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>996</v>
@@ -2781,13 +2766,13 @@
         <v>812931</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="M32" s="7">
         <v>1563</v>
@@ -2796,13 +2781,13 @@
         <v>1465690</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2802,13 @@
         <v>28435</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -2832,13 +2817,13 @@
         <v>21229</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="M33" s="7">
         <v>51</v>
@@ -2847,13 +2832,13 @@
         <v>49665</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2853,13 @@
         <v>177043</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H34" s="7">
         <v>39</v>
@@ -2883,13 +2868,13 @@
         <v>33632</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>208</v>
@@ -2898,13 +2883,13 @@
         <v>210675</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2957,13 @@
         <v>2923723</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>5163</v>
@@ -2987,28 +2972,28 @@
         <v>3674887</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>8039</v>
       </c>
       <c r="N36" s="7">
-        <v>6598612</v>
+        <v>6598611</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3008,13 @@
         <v>164686</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>105</v>
@@ -3038,13 +3023,13 @@
         <v>68346</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M37" s="7">
         <v>270</v>
@@ -3053,13 +3038,13 @@
         <v>233032</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3059,13 @@
         <v>287817</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H38" s="7">
         <v>91</v>
@@ -3089,13 +3074,13 @@
         <v>62332</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="M38" s="7">
         <v>416</v>
@@ -3104,13 +3089,13 @@
         <v>350150</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3137,7 @@
         <v>8725</v>
       </c>
       <c r="N39" s="7">
-        <v>7181794</v>
+        <v>7181793</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3166,7 +3151,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
